--- a/Calendar/maincalendar/static/maincalendar/textdb.xlsx
+++ b/Calendar/maincalendar/static/maincalendar/textdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\app\Django\Calendar\Calendar\maincalendar\static\maincalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3405B6-5E35-40C9-A19E-9C8ECF214120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA51F926-95AD-4E63-A3E9-244919E4716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="2415" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>pt-br</t>
   </si>
@@ -217,6 +217,48 @@
   </si>
   <si>
     <t>Mês</t>
+  </si>
+  <si>
+    <t>STYLES</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>Sans-serif</t>
+  </si>
+  <si>
+    <t>btnHeight</t>
+  </si>
+  <si>
+    <t>30px</t>
+  </si>
+  <si>
+    <t>btnWidth</t>
+  </si>
+  <si>
+    <t>themeColor1</t>
+  </si>
+  <si>
+    <t>themeColor2</t>
+  </si>
+  <si>
+    <t>themeColor3</t>
+  </si>
+  <si>
+    <t>themeColor4</t>
+  </si>
+  <si>
+    <t>#0037ff</t>
+  </si>
+  <si>
+    <t>#5e7be6</t>
+  </si>
+  <si>
+    <t>#b6c5fb</t>
+  </si>
+  <si>
+    <t>#ebefff</t>
   </si>
 </sst>
 </file>
@@ -570,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +888,67 @@
         <v>60</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/Calendar/maincalendar/static/maincalendar/textdb.xlsx
+++ b/Calendar/maincalendar/static/maincalendar/textdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\app\Django\Calendar\Calendar\maincalendar\static\maincalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA51F926-95AD-4E63-A3E9-244919E4716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F9390-C573-4FA3-A44F-3E61CB3384A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2415" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>pt-br</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>#ebefff</t>
+  </si>
+  <si>
+    <t>txtHour</t>
+  </si>
+  <si>
+    <t>Hora</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +955,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/Calendar/maincalendar/static/maincalendar/textdb.xlsx
+++ b/Calendar/maincalendar/static/maincalendar/textdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\app\Django\Calendar\Calendar\maincalendar\static\maincalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F9390-C573-4FA3-A44F-3E61CB3384A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0653BAE0-40B4-4E66-AA98-45E17C113E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2415" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>hours</t>
   </si>
   <si>
-    <t>00:00, 01:00, 02:00, 03:00, 04:00, 05:00, 06:00, 07:00, 08:00, 09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00</t>
-  </si>
-  <si>
     <t>Hoje</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>00:00, 00:30, 01:00, 01:30, 02:00, 02:30, 03:00, 03:30, 04:00, 04:30, 05:00, 05:30, 06:00, 06:30, 07:00, 07:30, 08:00, 08:30, 09:00, 09:30, 10:00, 10:30, 11:00, 11:30, 12:00, 12:30, 13:00, 13:30, 14:00, 14:30, 15:00, 15:30, 16:00, 16:30, 17:00, 17:30, 18:00, 18:30, 19:00, 19:30, 20:00, 20:30, 21:00, 21:30, 22:00, 22:30, 23:00, 23:30</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,134 +833,134 @@
         <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
